--- a/Documents Finaux/Sources & glossaire.xlsx
+++ b/Documents Finaux/Sources & glossaire.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Courant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Documents Finaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F6249-B0FA-4E7C-B2DF-F1FBFD58004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73AFA1-D78A-4E0C-A1A1-5A942B58D599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="150" windowWidth="22350" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="120" windowWidth="19185" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
     <sheet name="Glossaire" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Glossaire!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sources!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Source</t>
   </si>
@@ -85,12 +89,6 @@
     <t>WAN</t>
   </si>
   <si>
-    <t>Local Area Network: réseau local</t>
-  </si>
-  <si>
-    <t>Wide Area Network: réseau étendu</t>
-  </si>
-  <si>
     <t>Mise en service d'un pare-feu Fortinet</t>
   </si>
   <si>
@@ -112,9 +110,6 @@
     <t>https://www.larousse.fr/</t>
   </si>
   <si>
-    <t>Application matérielle, appareil informatique spécifiquement conçu pour exécuter un logiciel destiné à fournir une ressource informatique distincte</t>
-  </si>
-  <si>
     <t>Application matérielle</t>
   </si>
   <si>
@@ -127,9 +122,6 @@
     <t>Question à Mr. Varela par rapport au FortiGate/routeur: le fortigate sert de routeur! (comme pour la structure du CPNV)</t>
   </si>
   <si>
-    <t>FortiGate Firewall: Practical Guidance and Hands-On Labs</t>
-  </si>
-  <si>
     <t>https://pressbooks.bccampus.ca/fortigatefirewall/</t>
   </si>
   <si>
@@ -142,9 +134,6 @@
     <t>VDOM</t>
   </si>
   <si>
-    <t>Virtual Domain</t>
-  </si>
-  <si>
     <t>Cisco Catalyst 3500 series</t>
   </si>
   <si>
@@ -163,15 +152,9 @@
     <t>Laurent Yaggi</t>
   </si>
   <si>
-    <t>Spanning Tree Protocol</t>
-  </si>
-  <si>
     <t>VTP</t>
   </si>
   <si>
-    <t>VLAN Trunk Protocol</t>
-  </si>
-  <si>
     <t>https://www.cisco.com/c/fr_ca/support/docs/lan-switching/vtp/10558-21.pdf</t>
   </si>
   <si>
@@ -190,39 +173,18 @@
     <t>Limitations system</t>
   </si>
   <si>
-    <t>26.5.2023</t>
-  </si>
-  <si>
     <t>CLI</t>
   </si>
   <si>
-    <t>Commande Ligne Interface</t>
-  </si>
-  <si>
     <t>DHCP</t>
   </si>
   <si>
-    <t>Dynamic Host Configuration Protocol</t>
-  </si>
-  <si>
-    <t>Open Systems Interconnection: norme de communication en réseau</t>
-  </si>
-  <si>
     <t>Adresse IP</t>
   </si>
   <si>
     <t>Modèle OSI</t>
   </si>
   <si>
-    <t>Internet Protocol: numéro d'identification attribué à chaque périphérique relié à un réseau informatique</t>
-  </si>
-  <si>
-    <t>Sip</t>
-  </si>
-  <si>
-    <t>Service Informatique pédagogique</t>
-  </si>
-  <si>
     <t>Ping</t>
   </si>
   <si>
@@ -238,9 +200,6 @@
     <t>VPN Site à site</t>
   </si>
   <si>
-    <t>journal</t>
-  </si>
-  <si>
     <t>IPSec</t>
   </si>
   <si>
@@ -250,13 +209,73 @@
     <t>DH</t>
   </si>
   <si>
-    <t>Diffie-Hellman Groups: détermine la force de la clé utilisée dans un processus d'échange de clé cryptographique</t>
-  </si>
-  <si>
     <t>AES256</t>
   </si>
   <si>
     <t>SHA256</t>
+  </si>
+  <si>
+    <t>Commande servant à vérifier les connexions établies.</t>
+  </si>
+  <si>
+    <t>https://www.wikipedia.org/</t>
+  </si>
+  <si>
+    <t>FortiGate : Practical Guidance and Hands-On Labs</t>
+  </si>
+  <si>
+    <t>SIp</t>
+  </si>
+  <si>
+    <t>Spanning Tree Protocol : protocole réseau de niveau 2 permettant de déterminer une toplogie sans boucle.</t>
+  </si>
+  <si>
+    <t>Commande servant à suire les chemins des paquet IP.</t>
+  </si>
+  <si>
+    <t>Virtual Domain: Pare-feu virtuel.</t>
+  </si>
+  <si>
+    <t>Wide Area Network: réseau étendu.</t>
+  </si>
+  <si>
+    <t>Internet Protocol: numéro d'identification attribué à chaque périphérique relié à un réseau informatique.</t>
+  </si>
+  <si>
+    <t>Advanced Encryption Standard 256 : algorithme de chiffrement.</t>
+  </si>
+  <si>
+    <t>Application matérielle, appareil informatique spécifiquement conçu pour exécuter un logiciel destiné à fournir une ressource informatique distincte.</t>
+  </si>
+  <si>
+    <t>Commande Ligne Interface : interface en ligne de commande / en opposition à l'interface graphique.</t>
+  </si>
+  <si>
+    <t>Diffie-Hellman Groups: détermine la force de la clé utilisée dans un processus d'échange de clé cryptographique.</t>
+  </si>
+  <si>
+    <t>Dynamic Host Configuration Protocol : protocole de configuration dynamique des hôtes. Sert à distribuer automatiquement des adresses IP.</t>
+  </si>
+  <si>
+    <t>Graphical User Interface : interface graphique / en opposition à la ligne de commande.</t>
+  </si>
+  <si>
+    <t>Internet Protocol Security: ensemble de protocoles utilisant des algorithmes permettant le transport de données sécurisées sur un réseau IP.</t>
+  </si>
+  <si>
+    <t>Local Area Network: réseau local.</t>
+  </si>
+  <si>
+    <t>Open Systems Interconnection: norme de communication en réseau.</t>
+  </si>
+  <si>
+    <t>Secure Hash Algorithm 256 : fonction de hachage.</t>
+  </si>
+  <si>
+    <t>Service Informatique pédagogique : service informatique du CPNV.</t>
+  </si>
+  <si>
+    <t>Secure Sockets Layer : protocole de sécurisation des échanges par réseau informatique, notamment par internet.</t>
   </si>
 </sst>
 </file>
@@ -327,12 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -618,12 +636,12 @@
   <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -641,12 +659,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4">
         <v>45048</v>
       </c>
     </row>
@@ -657,7 +675,7 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>45049</v>
       </c>
     </row>
@@ -668,7 +686,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>45049</v>
       </c>
     </row>
@@ -679,7 +697,7 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>45049</v>
       </c>
     </row>
@@ -690,7 +708,7 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>45049</v>
       </c>
     </row>
@@ -701,7 +719,7 @@
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>45049</v>
       </c>
     </row>
@@ -712,157 +730,163 @@
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>45049</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
         <v>45050</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
         <v>45050</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
         <v>45050</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4">
         <v>45050</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
         <v>45055</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4">
         <v>45055</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45063</v>
+      <c r="C15" s="4">
+        <v>45056</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45069</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45061</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5">
-        <v>17.05</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45063</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4">
         <v>45069</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45069</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45069</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45072</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45077</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -2338,23 +2362,24 @@
     <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B14" r:id="rId7" location=":~:text=By%20default%2C%20each%20FortiGate%20unit,is%20confined%20to%20that%20VDOM." xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{B7D83742-3D52-4440-8D9A-84C7BE8D1DCE}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{C4651985-606D-4CE8-8E08-FC9EDD2F866B}"/>
-    <hyperlink ref="B21" r:id="rId12" xr:uid="{0CA6973A-B4BC-4E1E-8BBA-480EFD05E6D5}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{B7D83742-3D52-4440-8D9A-84C7BE8D1DCE}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{C4651985-606D-4CE8-8E08-FC9EDD2F866B}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{0CA6973A-B4BC-4E1E-8BBA-480EFD05E6D5}"/>
+    <hyperlink ref="B22" r:id="rId13" xr:uid="{3E245B70-7127-4930-A544-FD0C17E1F9B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,140 +2398,150 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,11 +3960,12 @@
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents Finaux/Sources & glossaire.xlsx
+++ b/Documents Finaux/Sources & glossaire.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Documents Finaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\Documents Finaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73AFA1-D78A-4E0C-A1A1-5A942B58D599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="120" windowWidth="19185" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="120" windowWidth="19185" windowHeight="20850"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Glossaire!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sources!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,9 +43,6 @@
     <t>FortiOS-6.4.12-Administration_Guide.pdf</t>
   </si>
   <si>
-    <t>https://fortinetweb.s3.amazonaws.com/docs.fortinet.com/v2/attachments/4df65995-af21-11ed-8e6d-fa163e15d75b/FortiOS-6.4.12-Administration_Guide.pdf</t>
-  </si>
-  <si>
     <t>I-CT146</t>
   </si>
   <si>
@@ -68,15 +64,9 @@
     <t>IPSec vs SSLVPN Fortigate</t>
   </si>
   <si>
-    <t>https://www.onlc.com/blog/comparing-ipsec-vs-ssl-vpns/#:~:text=The%20main%20difference%20between%20IPsec,or%20application%20on%20the%20network.</t>
-  </si>
-  <si>
     <t>FortiOS-6.4.12-CLI-References.pdf</t>
   </si>
   <si>
-    <t>https://fortinetweb.s3.amazonaws.com/docs.fortinet.com/v2/attachments/f3d2280a-b3ab-11ed-8e6d-fa163e15d75b/FortiOS-6.4.12-CLI_Reference.pdf</t>
-  </si>
-  <si>
     <t>Terme</t>
   </si>
   <si>
@@ -128,9 +118,6 @@
     <t>Virtual domains</t>
   </si>
   <si>
-    <t>https://www.fortinetguru.com/2016/12/virtual-domains/#:~:text=By%20default%2C%20each%20FortiGate%20unit,is%20confined%20to%20that%20VDOM.</t>
-  </si>
-  <si>
     <t>VDOM</t>
   </si>
   <si>
@@ -276,12 +263,24 @@
   </si>
   <si>
     <t>Secure Sockets Layer : protocole de sécurisation des échanges par réseau informatique, notamment par internet.</t>
+  </si>
+  <si>
+    <t>https://www.fortinetguru.com/2016/12/virtual-domains/</t>
+  </si>
+  <si>
+    <t>https://fortinetweb.s3.amazonaws.com/docs.fortinet.com/v2/attachments/FortiOS-6.4.12-CLI_Reference.pdf</t>
+  </si>
+  <si>
+    <t>https://www.onlc.com/blog/comparing-ipsec-vs-ssl-vpns/</t>
+  </si>
+  <si>
+    <t>https://fortinetweb.s3.amazonaws.com/docs.fortinet.com/v2/attachments/FortiOS-6.4.12-Administration_Guide.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
@@ -351,13 +350,154 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -368,6 +508,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:C22" totalsRowShown="0" headerRowDxfId="7">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Titre" dataDxfId="6"/>
+    <tableColumn id="2" name="Source" dataDxfId="5" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="3" name="Date consultation" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:B19" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Terme" dataDxfId="1"/>
+    <tableColumn id="2" name="Définition" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,17 +793,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -659,10 +820,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <v>45048</v>
@@ -673,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4">
         <v>45049</v>
@@ -681,10 +842,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
         <v>45049</v>
@@ -692,10 +853,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>45049</v>
@@ -703,10 +864,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>45049</v>
@@ -714,10 +875,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4">
         <v>45049</v>
@@ -725,10 +886,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4">
         <v>45049</v>
@@ -736,10 +897,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <v>45050</v>
@@ -747,10 +908,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>45050</v>
@@ -758,10 +919,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
         <v>45050</v>
@@ -769,10 +930,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
         <v>45050</v>
@@ -780,10 +941,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <v>45055</v>
@@ -791,10 +952,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4">
         <v>45055</v>
@@ -802,10 +963,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>45056</v>
@@ -813,10 +974,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4">
         <v>45061</v>
@@ -824,10 +985,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4">
         <v>45063</v>
@@ -835,10 +996,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4">
         <v>45069</v>
@@ -846,10 +1007,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
         <v>45069</v>
@@ -857,10 +1018,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4">
         <v>45069</v>
@@ -868,10 +1029,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4">
         <v>45072</v>
@@ -879,10 +1040,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4">
         <v>45077</v>
@@ -2355,189 +2516,192 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" location=":~:text=The%20main%20difference%20between%20IPsec,or%20application%20on%20the%20network." xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B14" r:id="rId7" location=":~:text=By%20default%2C%20each%20FortiGate%20unit,is%20confined%20to%20that%20VDOM." xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B20" r:id="rId10" xr:uid="{B7D83742-3D52-4440-8D9A-84C7BE8D1DCE}"/>
-    <hyperlink ref="B21" r:id="rId11" xr:uid="{C4651985-606D-4CE8-8E08-FC9EDD2F866B}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{0CA6973A-B4BC-4E1E-8BBA-480EFD05E6D5}"/>
-    <hyperlink ref="B22" r:id="rId13" xr:uid="{3E245B70-7127-4930-A544-FD0C17E1F9B9}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B19" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B21" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B22" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <tableParts count="1">
+    <tablePart r:id="rId15"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,11 +4125,9 @@
       <c r="B374" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>